--- a/src/analysis_examples/circadb/results_lomb/cosinor_10451363_srf_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10451363_srf_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.1615743957432451, 0.3223955467139181]</t>
+          <t>[0.16117113922874104, 0.32279880322842214]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.306100061495343e-06</v>
+        <v>3.545126491921735e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.306100061495343e-06</v>
+        <v>3.545126491921735e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.7421580242714629</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4014595907876605, 0.483822110222268]</t>
+          <t>[0.4014798565197019, 0.4838018444902266]</t>
         </is>
       </c>
       <c r="U2" t="n">
